--- a/SystemAutomation.xlsx
+++ b/SystemAutomation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\福本　圭吾\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\MyLab\Dsas_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014471AC-0CE1-4CC5-84EC-0320A73EAD21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AC1ACB-D329-455C-8E37-2EEE857C46D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="885" yWindow="-120" windowWidth="19725" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HPE_Server" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="290">
   <si>
     <t>P06687-B21</t>
   </si>
@@ -326,9 +326,6 @@
   </si>
   <si>
     <t>Ethernet 1Gb 2 ポート 332T ネットワーク アダプター</t>
-  </si>
-  <si>
-    <t>2.24.2（v20.14.57）</t>
   </si>
   <si>
     <t>P06421-291</t>
@@ -909,10 +906,6 @@
     <t>ZHP-P06479291</t>
   </si>
   <si>
-    <t>https://support.hpe.com/hpsc/swd/public/detail?swItemId=MTX_eec7452c4e6e480eb5728d0ddf</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
     <t>Ethernet 10Gb 2ポート 530T ネットワークアダプター</t>
     <phoneticPr fontId="19"/>
   </si>
@@ -938,6 +931,22 @@
   </si>
   <si>
     <t>HBA</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>2.24.2（v20.14.57）</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>2.62</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>DL G10 SASｴｷｽﾊﾟﾝﾀﾞｰｶｰﾄﾞ</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>https://support.hpe.com/hpsc/swd/public/detail?swItemId=MTX_379daccdc547448493fd2c5b17&amp;swEnvOid=4176</t>
     <phoneticPr fontId="19"/>
   </si>
 </sst>
@@ -1105,7 +1114,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1304,17 +1313,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -1333,7 +1331,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1416,15 +1414,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1438,19 +1427,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1461,6 +1444,18 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2531,16 +2526,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>98</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" s="9">
         <v>2.62</v>
@@ -2558,7 +2553,7 @@
         <v>52</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>56</v>
@@ -2579,10 +2574,10 @@
         <v>60</v>
       </c>
       <c r="AE6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP6" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="AP6" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:42" ht="18.75" customHeight="1">
@@ -2590,13 +2585,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>63</v>
@@ -2636,10 +2631,10 @@
         <v>60</v>
       </c>
       <c r="AE7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="AP7" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:42" ht="18.75" customHeight="1">
@@ -2647,10 +2642,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>112</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>113</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>46</v>
@@ -2699,10 +2694,10 @@
       </c>
       <c r="S8" s="24"/>
       <c r="AE8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP8" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="AP8" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:42" ht="18.75" customHeight="1">
@@ -2710,16 +2705,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>120</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>121</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>87</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F9" s="9">
         <v>2.62</v>
@@ -2737,7 +2732,7 @@
         <v>52</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>56</v>
@@ -2762,10 +2757,10 @@
       </c>
       <c r="S9" s="24"/>
       <c r="AE9" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AP9" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="18.75" customHeight="1">
@@ -2773,13 +2768,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C10" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>129</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>130</v>
       </c>
       <c r="E10" s="27" t="s">
         <v>63</v>
@@ -2794,13 +2789,13 @@
         <v>50</v>
       </c>
       <c r="I10" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="J10" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="K10" s="29" t="s">
         <v>132</v>
-      </c>
-      <c r="K10" s="29" t="s">
-        <v>133</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>56</v>
@@ -2825,10 +2820,10 @@
       </c>
       <c r="S10" s="24"/>
       <c r="AE10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AP10" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="AP10" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:42" ht="18.75" customHeight="1">
@@ -2844,7 +2839,7 @@
       </c>
       <c r="S11" s="24"/>
       <c r="AP11" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:42" ht="18.75" customHeight="1">
@@ -2860,7 +2855,7 @@
       </c>
       <c r="S12" s="24"/>
       <c r="AP12" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:42" ht="18.75" customHeight="1">
@@ -2876,7 +2871,7 @@
       </c>
       <c r="S13" s="24"/>
       <c r="AP13" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:42" ht="18.75" customHeight="1">
@@ -2892,7 +2887,7 @@
       </c>
       <c r="S14" s="24"/>
       <c r="AP14" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:42" ht="18.75" customHeight="1">
@@ -2904,7 +2899,7 @@
       <c r="P15" s="30"/>
       <c r="Q15" s="30"/>
       <c r="AP15" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:42" ht="18.75" customHeight="1">
@@ -5075,8 +5070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -5099,11 +5094,11 @@
       <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="57" t="s">
-        <v>283</v>
+      <c r="E1" s="52" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18.75" customHeight="1">
@@ -5116,11 +5111,11 @@
       <c r="C2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="57" t="s">
-        <v>284</v>
+      <c r="E2" s="52" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75" customHeight="1">
@@ -5129,13 +5124,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="52" t="s">
-        <v>280</v>
-      </c>
-      <c r="E3" s="57" t="s">
-        <v>285</v>
+        <v>286</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>283</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>44</v>
@@ -5157,11 +5152,11 @@
       <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="57" t="s">
-        <v>284</v>
+      <c r="E4" s="52" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18.75" customHeight="1">
@@ -5174,11 +5169,11 @@
       <c r="C5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="57" t="s">
-        <v>284</v>
+      <c r="E5" s="52" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.75" customHeight="1">
@@ -5186,14 +5181,14 @@
         <v>67</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>68</v>
+        <v>288</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="57" t="s">
-        <v>286</v>
+      <c r="D6" s="49"/>
+      <c r="E6" s="52" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.75" customHeight="1">
@@ -5204,13 +5199,13 @@
         <v>73</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="51" t="s">
+        <v>287</v>
+      </c>
+      <c r="D7" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="57" t="s">
-        <v>284</v>
+      <c r="E7" s="52" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" customHeight="1">
@@ -5223,9 +5218,9 @@
       <c r="C8" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="57" t="s">
-        <v>285</v>
+      <c r="D8" s="49"/>
+      <c r="E8" s="52" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" customHeight="1">
@@ -5234,13 +5229,13 @@
         <v>94</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="52" t="s">
-        <v>280</v>
-      </c>
-      <c r="E9" s="58" t="s">
-        <v>285</v>
+        <v>286</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>289</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.75" customHeight="1">
@@ -5248,61 +5243,61 @@
         <v>58</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="57" t="s">
-        <v>284</v>
+      <c r="E10" s="52" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A11" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="45" t="s">
+      <c r="A11" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="59" t="s">
+        <v>289</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A12" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="50"/>
+      <c r="E12" s="52" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A13" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="E11" s="57" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A12" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="57" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A13" s="59" t="s">
-        <v>282</v>
-      </c>
-      <c r="B13" s="60" t="s">
-        <v>281</v>
-      </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="57" t="s">
-        <v>285</v>
+      <c r="B13" s="55" t="s">
+        <v>279</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.75" customHeight="1">
@@ -6724,9 +6719,9 @@
     <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
     <hyperlink ref="D7" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
     <hyperlink ref="D10" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="D3" r:id="rId6" xr:uid="{A9BB7F42-C9D2-4FA0-905F-83DC7A08C86C}"/>
-    <hyperlink ref="D9" r:id="rId7" xr:uid="{41AFD822-EDC8-448E-B9CC-8974B7A33927}"/>
-    <hyperlink ref="D11" r:id="rId8" xr:uid="{12AA0983-6698-4120-A68A-E93F0ADCDE24}"/>
+    <hyperlink ref="D3" r:id="rId6" xr:uid="{7762A748-BFB8-4C5E-95AF-42B3B014EC57}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{4B79DC39-E24D-48B6-A7DC-461E8CB5E390}"/>
+    <hyperlink ref="D11" r:id="rId8" xr:uid="{840EBDFF-FD91-4136-A19A-863BCDE17DD0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId9"/>
@@ -8921,7 +8916,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>36</v>
@@ -8948,10 +8943,10 @@
     </row>
     <row r="2" spans="1:20" ht="18.75" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
@@ -8962,10 +8957,10 @@
     </row>
     <row r="3" spans="1:20" ht="18.75" customHeight="1">
       <c r="A3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -10011,7 +10006,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -10027,10 +10022,10 @@
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
       <c r="A2" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -10046,10 +10041,10 @@
     </row>
     <row r="3" spans="1:17" ht="18.75" customHeight="1">
       <c r="A3" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>143</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>144</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -10065,10 +10060,10 @@
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1">
       <c r="A4" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>145</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>146</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -10084,10 +10079,10 @@
     </row>
     <row r="5" spans="1:17" ht="18.75" customHeight="1">
       <c r="A5" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>147</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>148</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -10118,10 +10113,10 @@
     </row>
     <row r="7" spans="1:17" ht="18.75" customHeight="1">
       <c r="A7" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>149</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>150</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
@@ -10137,10 +10132,10 @@
     </row>
     <row r="8" spans="1:17" ht="18.75" customHeight="1">
       <c r="A8" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>151</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>152</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
@@ -10171,10 +10166,10 @@
     </row>
     <row r="10" spans="1:17" ht="18.75" customHeight="1">
       <c r="A10" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>153</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>154</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="5" t="s">
@@ -10184,29 +10179,29 @@
         <v>1</v>
       </c>
       <c r="F10" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="31" t="s">
         <v>155</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>156</v>
       </c>
       <c r="H10" s="31">
         <v>8</v>
       </c>
       <c r="I10" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="J10" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="J10" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="K10" s="43"/>
+      <c r="K10" s="57"/>
       <c r="L10" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>56</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O10" s="19"/>
       <c r="P10" s="19"/>
@@ -10214,17 +10209,17 @@
     </row>
     <row r="11" spans="1:17" ht="18.75" customHeight="1">
       <c r="A11" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>170</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>171</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
@@ -10233,19 +10228,19 @@
       <c r="J11" s="31"/>
       <c r="K11" s="31"/>
       <c r="L11" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M11" s="31" t="s">
         <v>36</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O11" s="13">
         <v>0</v>
       </c>
       <c r="P11" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="13">
         <v>0</v>
@@ -10253,10 +10248,10 @@
     </row>
     <row r="12" spans="1:17" ht="18.75" customHeight="1">
       <c r="A12" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>170</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>171</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="5" t="s">
@@ -10272,19 +10267,19 @@
       <c r="J12" s="31"/>
       <c r="K12" s="31"/>
       <c r="L12" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M12" s="31" t="s">
         <v>36</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O12" s="13">
         <v>0</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q12" s="13">
         <v>0</v>
@@ -10292,10 +10287,10 @@
     </row>
     <row r="13" spans="1:17" ht="18.75" customHeight="1">
       <c r="A13" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>170</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>171</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="5" t="s">
@@ -10315,17 +10310,17 @@
     </row>
     <row r="14" spans="1:17" ht="18.75" customHeight="1">
       <c r="A14" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
@@ -10338,17 +10333,17 @@
     </row>
     <row r="15" spans="1:17" ht="18.75" customHeight="1">
       <c r="A15" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
@@ -10361,10 +10356,10 @@
     </row>
     <row r="16" spans="1:17" ht="18.75" customHeight="1">
       <c r="A16" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -10380,10 +10375,10 @@
     </row>
     <row r="17" spans="1:13" ht="18.75" customHeight="1">
       <c r="A17" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -10399,10 +10394,10 @@
     </row>
     <row r="18" spans="1:13" ht="18.75" customHeight="1">
       <c r="A18" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -10418,10 +10413,10 @@
     </row>
     <row r="19" spans="1:13" ht="18.75" customHeight="1">
       <c r="A19" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -10437,10 +10432,10 @@
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1">
       <c r="A20" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -10456,10 +10451,10 @@
     </row>
     <row r="21" spans="1:13" ht="18.75" customHeight="1">
       <c r="A21" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -10475,10 +10470,10 @@
     </row>
     <row r="22" spans="1:13" ht="18.75" customHeight="1">
       <c r="A22" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
@@ -10494,10 +10489,10 @@
     </row>
     <row r="23" spans="1:13" ht="18.75" customHeight="1">
       <c r="A23" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="B23" s="18" t="s">
         <v>238</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>239</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -10513,10 +10508,10 @@
     </row>
     <row r="24" spans="1:13" ht="18.75" customHeight="1">
       <c r="A24" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
@@ -10532,10 +10527,10 @@
     </row>
     <row r="25" spans="1:13" ht="18.75" customHeight="1">
       <c r="A25" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>244</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>245</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -11592,7 +11587,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C1" s="32" t="s">
         <v>76</v>
@@ -11600,82 +11595,82 @@
     </row>
     <row r="2" spans="1:3" ht="18.75" customHeight="1">
       <c r="A2" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>160</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>161</v>
       </c>
       <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:3" ht="18.75" customHeight="1">
       <c r="A3" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>163</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>164</v>
       </c>
       <c r="C3" s="32"/>
     </row>
     <row r="4" spans="1:3" ht="18.75" customHeight="1">
       <c r="A4" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>165</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>166</v>
       </c>
       <c r="C4" s="32"/>
     </row>
     <row r="5" spans="1:3" ht="18.75" customHeight="1">
       <c r="A5" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>168</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>169</v>
       </c>
       <c r="C5" s="32"/>
     </row>
     <row r="6" spans="1:3" ht="18.75" customHeight="1">
       <c r="A6" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>172</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>173</v>
       </c>
       <c r="C6" s="32"/>
     </row>
     <row r="7" spans="1:3" ht="18.75" customHeight="1">
       <c r="A7" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="32" t="s">
         <v>175</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>176</v>
       </c>
       <c r="C7" s="32"/>
     </row>
     <row r="8" spans="1:3" ht="18.75" customHeight="1">
       <c r="A8" s="32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C8" s="32"/>
     </row>
     <row r="9" spans="1:3" ht="18.75" customHeight="1">
       <c r="A9" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="32" t="s">
         <v>181</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>182</v>
       </c>
       <c r="C9" s="32"/>
     </row>
     <row r="10" spans="1:3" ht="18.75" customHeight="1">
       <c r="A10" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" s="32" t="s">
         <v>183</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>184</v>
       </c>
       <c r="C10" s="32"/>
     </row>
@@ -11686,19 +11681,19 @@
     </row>
     <row r="12" spans="1:3" ht="18.75" customHeight="1">
       <c r="A12" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>186</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>187</v>
       </c>
       <c r="C12" s="32"/>
     </row>
     <row r="13" spans="1:3" ht="18.75" customHeight="1">
       <c r="A13" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>188</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>189</v>
       </c>
       <c r="C13" s="32"/>
     </row>
@@ -11707,43 +11702,43 @@
         <v>53</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C14" s="32"/>
     </row>
     <row r="15" spans="1:3" ht="18.75" customHeight="1">
       <c r="A15" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>194</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>195</v>
       </c>
       <c r="C15" s="32"/>
     </row>
     <row r="16" spans="1:3" ht="18.75" customHeight="1">
       <c r="A16" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>196</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>197</v>
       </c>
       <c r="C16" s="32"/>
     </row>
     <row r="17" spans="1:3" ht="18.75" customHeight="1">
       <c r="A17" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C17" s="32"/>
     </row>
     <row r="18" spans="1:3" ht="18.75" customHeight="1">
       <c r="A18" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>201</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>202</v>
       </c>
       <c r="C18" s="32"/>
     </row>
@@ -11758,10 +11753,10 @@
     </row>
     <row r="20" spans="1:3" ht="18.75" customHeight="1">
       <c r="A20" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>203</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>204</v>
       </c>
       <c r="C20" s="18"/>
     </row>
@@ -11776,10 +11771,10 @@
     </row>
     <row r="22" spans="1:3" ht="18.75" customHeight="1">
       <c r="A22" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>205</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>206</v>
       </c>
       <c r="C22" s="18"/>
     </row>
@@ -11791,29 +11786,29 @@
         <v>45</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75" customHeight="1">
       <c r="A24" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>204</v>
-      </c>
       <c r="C24" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75" customHeight="1">
       <c r="A25" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="B25" s="18" t="s">
-        <v>173</v>
-      </c>
       <c r="C25" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75" customHeight="1">
@@ -11821,7 +11816,7 @@
         <v>58</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>91</v>
@@ -11829,10 +11824,10 @@
     </row>
     <row r="27" spans="1:3" ht="18.75" customHeight="1">
       <c r="A27" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>210</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>211</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>91</v>
@@ -11840,24 +11835,24 @@
     </row>
     <row r="28" spans="1:3" ht="18.75" customHeight="1">
       <c r="A28" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="C28" s="18" t="s">
         <v>213</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75" customHeight="1">
       <c r="A29" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75" customHeight="1">
@@ -11868,7 +11863,7 @@
         <v>62</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.75" customHeight="1">
@@ -11884,10 +11879,10 @@
     </row>
     <row r="32" spans="1:3" ht="18.75" customHeight="1">
       <c r="A32" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>91</v>
@@ -11895,24 +11890,24 @@
     </row>
     <row r="33" spans="1:4" ht="18.75" customHeight="1">
       <c r="A33" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="B33" s="18" t="s">
-        <v>217</v>
-      </c>
       <c r="C33" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18.75" customHeight="1">
       <c r="A34" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="B34" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="B34" s="18" t="s">
-        <v>219</v>
-      </c>
       <c r="C34" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="18.75" customHeight="1">
@@ -11923,40 +11918,40 @@
         <v>71</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18.75" customHeight="1">
       <c r="A36" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="B36" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="C36" s="18" t="s">
         <v>221</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="18.75" customHeight="1">
       <c r="A37" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="B37" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="C37" s="18" t="s">
         <v>224</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="18.75" customHeight="1">
       <c r="A38" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B38" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="C38" s="18" t="s">
         <v>227</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="18.75" customHeight="1">
@@ -11967,18 +11962,18 @@
         <v>54</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.75" customHeight="1">
       <c r="A40" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="B40" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="B40" s="18" t="s">
-        <v>231</v>
-      </c>
       <c r="C40" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="18.75" customHeight="1">
@@ -11989,64 +11984,64 @@
         <v>86</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="18.75" customHeight="1">
       <c r="A42" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="18.75" customHeight="1">
       <c r="A43" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="18.75" customHeight="1">
       <c r="A44" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D44" s="34"/>
     </row>
     <row r="45" spans="1:4" ht="18.75" customHeight="1">
       <c r="A45" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="B45" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="B45" s="18" t="s">
-        <v>224</v>
-      </c>
       <c r="C45" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D45" s="35"/>
     </row>
     <row r="46" spans="1:4" ht="18.75" customHeight="1">
       <c r="A46" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D46" s="35"/>
     </row>
@@ -12058,25 +12053,25 @@
     </row>
     <row r="48" spans="1:4" ht="18.75" customHeight="1">
       <c r="A48" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D48" s="35"/>
     </row>
     <row r="49" spans="1:4" ht="18.75" customHeight="1">
       <c r="A49" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B49" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="C49" s="18" t="s">
         <v>246</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>247</v>
       </c>
       <c r="D49" s="35"/>
     </row>
@@ -12088,55 +12083,55 @@
         <v>68</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D50" s="35"/>
     </row>
     <row r="51" spans="1:4" ht="18.75" customHeight="1">
       <c r="A51" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="B51" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="B51" s="32" t="s">
+      <c r="C51" s="18" t="s">
         <v>250</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>251</v>
       </c>
       <c r="D51" s="35"/>
     </row>
     <row r="52" spans="1:4" ht="18.75" customHeight="1">
       <c r="A52" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="B52" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="C52" s="18" t="s">
         <v>253</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>254</v>
       </c>
       <c r="D52" s="35"/>
     </row>
     <row r="53" spans="1:4" ht="18.75" customHeight="1">
       <c r="A53" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="B53" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="B53" s="32" t="s">
-        <v>256</v>
-      </c>
       <c r="C53" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D53" s="35"/>
     </row>
     <row r="54" spans="1:4" ht="18.75" customHeight="1">
       <c r="A54" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="B54" s="32" t="s">
-        <v>128</v>
-      </c>
       <c r="C54" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="18.75" customHeight="1">
@@ -12152,51 +12147,51 @@
         <v>86</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="18.75" customHeight="1">
       <c r="A57" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="18.75" customHeight="1">
       <c r="A58" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="18.75" customHeight="1">
       <c r="A59" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="B59" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="B59" s="18" t="s">
-        <v>258</v>
-      </c>
       <c r="C59" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="18.75" customHeight="1">
       <c r="A60" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="18.75" customHeight="1">
@@ -12212,29 +12207,29 @@
         <v>45</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="18.75" customHeight="1">
       <c r="A63" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B63" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="B63" s="18" t="s">
-        <v>204</v>
-      </c>
       <c r="C63" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="18.75" customHeight="1">
       <c r="A64" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B64" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="B64" s="18" t="s">
-        <v>173</v>
-      </c>
       <c r="C64" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="18.75" customHeight="1">
@@ -12250,24 +12245,24 @@
     </row>
     <row r="66" spans="1:3" ht="18.75" customHeight="1">
       <c r="A66" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B66" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="B66" s="18" t="s">
-        <v>206</v>
-      </c>
       <c r="C66" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="18.75" customHeight="1">
       <c r="A67" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B67" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="B67" s="18" t="s">
-        <v>206</v>
-      </c>
       <c r="C67" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="18.75" customHeight="1">
@@ -12277,68 +12272,68 @@
     </row>
     <row r="69" spans="1:3" ht="18.75" customHeight="1">
       <c r="A69" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B69" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="B69" s="18" t="s">
-        <v>106</v>
-      </c>
       <c r="C69" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="18.75" customHeight="1">
       <c r="A70" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="B70" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="B70" s="18" t="s">
-        <v>262</v>
-      </c>
       <c r="C70" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="18.75" customHeight="1">
       <c r="A71" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B71" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="B71" s="18" t="s">
-        <v>169</v>
-      </c>
       <c r="C71" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="18.75" customHeight="1">
       <c r="A72" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B72" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="B72" s="18" t="s">
-        <v>173</v>
-      </c>
       <c r="C72" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="18.75" customHeight="1">
       <c r="A73" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="B73" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="B73" s="18" t="s">
-        <v>265</v>
-      </c>
       <c r="C73" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="18.75" customHeight="1">
       <c r="A74" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="18.75" customHeight="1">
@@ -12348,35 +12343,35 @@
     </row>
     <row r="76" spans="1:3" ht="18.75" customHeight="1">
       <c r="A76" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B76" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="B76" s="38" t="s">
-        <v>113</v>
-      </c>
       <c r="C76" s="39" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="18.75" customHeight="1">
       <c r="A77" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="C77" s="40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="18.75" customHeight="1">
       <c r="A78" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>173</v>
-      </c>
       <c r="C78" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="18.75" customHeight="1">
@@ -12384,7 +12379,7 @@
         <v>58</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C79" s="40" t="s">
         <v>91</v>
@@ -12392,10 +12387,10 @@
     </row>
     <row r="80" spans="1:3" ht="18.75" customHeight="1">
       <c r="A80" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>211</v>
       </c>
       <c r="C80" s="40" t="s">
         <v>91</v>
@@ -12403,57 +12398,57 @@
     </row>
     <row r="81" spans="1:3" ht="18.75" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="18.75" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="18.75" customHeight="1">
       <c r="A83" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="18.75" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="18.75" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="18.75" customHeight="1">
@@ -14304,37 +14299,37 @@
   <sheetData>
     <row r="1" spans="2:7" ht="18.75" customHeight="1">
       <c r="B1" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="18.75" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="18.75" customHeight="1">
       <c r="D3" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="18.75" customHeight="1">
       <c r="D4" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -14342,26 +14337,26 @@
     </row>
     <row r="5" spans="2:7" ht="18.75" customHeight="1"/>
     <row r="6" spans="2:7" ht="18.75" customHeight="1">
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="58" t="s">
+        <v>276</v>
+      </c>
+      <c r="E6" s="57"/>
+      <c r="F6" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="6" t="s">
-        <v>278</v>
-      </c>
       <c r="G6" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="18.75" customHeight="1">
       <c r="D7" s="41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G7" s="41">
         <v>2</v>

--- a/SystemAutomation.xlsx
+++ b/SystemAutomation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\MyLab\Dsas_Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\UiPath\Dsas_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AC1ACB-D329-455C-8E37-2EEE857C46D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C1DBC7-3443-4F2B-90A9-6F9BE1773954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="-120" windowWidth="19725" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2565" yWindow="1560" windowWidth="17295" windowHeight="8325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HPE_Server" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="291">
   <si>
     <t>P06687-B21</t>
   </si>
@@ -947,6 +947,10 @@
   </si>
   <si>
     <t>https://support.hpe.com/hpsc/swd/public/detail?swItemId=MTX_379daccdc547448493fd2c5b17&amp;swEnvOid=4176</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>https://support.hpe.com/hpsc/swd/public/detail?swItemId=MTX_d44f26458a5c435982ed57b5dc&amp;swEnvOid=4176</t>
     <phoneticPr fontId="19"/>
   </si>
 </sst>
@@ -1331,7 +1335,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1444,6 +1448,9 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -1453,7 +1460,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5070,8 +5077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -5126,7 +5133,7 @@
       <c r="C3" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="56" t="s">
         <v>289</v>
       </c>
       <c r="E3" s="52" t="s">
@@ -5218,7 +5225,9 @@
       <c r="C8" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="49"/>
+      <c r="D8" s="60" t="s">
+        <v>290</v>
+      </c>
       <c r="E8" s="52" t="s">
         <v>283</v>
       </c>
@@ -5231,7 +5240,7 @@
       <c r="C9" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="56" t="s">
         <v>289</v>
       </c>
       <c r="E9" s="53" t="s">
@@ -5265,7 +5274,7 @@
       <c r="C11" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="56" t="s">
         <v>289</v>
       </c>
       <c r="E11" s="52" t="s">
@@ -6722,9 +6731,10 @@
     <hyperlink ref="D3" r:id="rId6" xr:uid="{7762A748-BFB8-4C5E-95AF-42B3B014EC57}"/>
     <hyperlink ref="D9" r:id="rId7" xr:uid="{4B79DC39-E24D-48B6-A7DC-461E8CB5E390}"/>
     <hyperlink ref="D11" r:id="rId8" xr:uid="{840EBDFF-FD91-4136-A19A-863BCDE17DD0}"/>
+    <hyperlink ref="D8" r:id="rId9" xr:uid="{745829DE-603C-44D1-A7C4-3EB3DE205FC0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId9"/>
+  <pageSetup orientation="landscape" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -10190,10 +10200,10 @@
       <c r="I10" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="J10" s="56" t="s">
+      <c r="J10" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="K10" s="57"/>
+      <c r="K10" s="58"/>
       <c r="L10" s="5" t="s">
         <v>161</v>
       </c>
@@ -14337,10 +14347,10 @@
     </row>
     <row r="5" spans="2:7" ht="18.75" customHeight="1"/>
     <row r="6" spans="2:7" ht="18.75" customHeight="1">
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="59" t="s">
         <v>276</v>
       </c>
-      <c r="E6" s="57"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="6" t="s">
         <v>277</v>
       </c>
